--- a/Data Mining/Algoritma KNN/LATIHAN KNN.xlsx
+++ b/Data Mining/Algoritma KNN/LATIHAN KNN.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>Tinggi</t>
   </si>
@@ -643,397 +643,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="153">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="114">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2452,8 +2062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:T66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2566,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="P3" s="48">
-        <f>SQRT((C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2)</f>
+        <f t="shared" ref="P3:P27" si="2">SQRT((C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2)</f>
         <v>12.419742348374221</v>
       </c>
       <c r="Q3" s="49">
@@ -2609,11 +2219,11 @@
         <v>13.103816238027759</v>
       </c>
       <c r="K4" s="49" t="str">
-        <f t="shared" ref="K4:K27" si="2">IF($J4&lt;=SMALL($J$3:$J$27,5),$H4,"")</f>
+        <f t="shared" ref="K4:K27" si="3">IF($J4&lt;=SMALL($J$3:$J$27,5),$H4,"")</f>
         <v/>
       </c>
       <c r="L4" s="49">
-        <f t="shared" ref="L4:L27" si="3">IF($J4&lt;=SMALL($J$3:$J$27,7),$H4,"")</f>
+        <f t="shared" ref="L4:L27" si="4">IF($J4&lt;=SMALL($J$3:$J$27,7),$H4,"")</f>
         <v>3</v>
       </c>
       <c r="M4" s="50">
@@ -2621,19 +2231,19 @@
         <v>3</v>
       </c>
       <c r="P4" s="48">
-        <f>SQRT((C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>16.328196471135445</v>
       </c>
       <c r="Q4" s="49" t="str">
-        <f t="shared" ref="Q4:Q28" si="4">IF($P4&lt;=SMALL($P$3:$P$27,5),$H4,"")</f>
+        <f t="shared" ref="Q4:Q27" si="5">IF($P4&lt;=SMALL($P$3:$P$27,5),$H4,"")</f>
         <v/>
       </c>
       <c r="R4" s="49" t="str">
-        <f t="shared" ref="R4:R28" si="5">IF($P4&lt;=SMALL($P$3:$P$27,7),$H4,"")</f>
+        <f t="shared" ref="R4:R27" si="6">IF($P4&lt;=SMALL($P$3:$P$27,7),$H4,"")</f>
         <v/>
       </c>
       <c r="S4" s="50">
-        <f t="shared" ref="S4:S28" si="6">IF($P4&lt;=SMALL($P$3:$P$27,9),$H4,"")</f>
+        <f t="shared" ref="S4:S27" si="7">IF($P4&lt;=SMALL($P$3:$P$27,9),$H4,"")</f>
         <v>3</v>
       </c>
     </row>
@@ -2664,11 +2274,11 @@
         <v>0</v>
       </c>
       <c r="K5" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L5" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M5" s="50">
@@ -2676,19 +2286,19 @@
         <v>3</v>
       </c>
       <c r="P5" s="48">
-        <f>SQRT((C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>5.0990195135927845</v>
       </c>
       <c r="Q5" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="R5" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S5" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2719,11 +2329,11 @@
         <v>13.81086528788113</v>
       </c>
       <c r="K6" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L6" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="M6" s="50">
@@ -2731,19 +2341,19 @@
         <v>2</v>
       </c>
       <c r="P6" s="48">
-        <f>SQRT((C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>15.777832550765647</v>
       </c>
       <c r="Q6" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R6" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="S6" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
@@ -2774,11 +2384,11 @@
         <v>15.592947123619702</v>
       </c>
       <c r="K7" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L7" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M7" s="50" t="str">
@@ -2786,19 +2396,19 @@
         <v/>
       </c>
       <c r="P7" s="48">
-        <f>SQRT((C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>16.350535159437442</v>
       </c>
       <c r="Q7" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R7" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S7" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2829,11 +2439,11 @@
         <v>15.443445211480499</v>
       </c>
       <c r="K8" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L8" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M8" s="50" t="str">
@@ -2841,19 +2451,19 @@
         <v/>
       </c>
       <c r="P8" s="48">
-        <f>SQRT((C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>17.621010186706094</v>
       </c>
       <c r="Q8" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R8" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S8" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -2884,11 +2494,11 @@
         <v>8.8425109556053112</v>
       </c>
       <c r="K9" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L9" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M9" s="50">
@@ -2896,19 +2506,19 @@
         <v>3</v>
       </c>
       <c r="P9" s="48">
-        <f>SQRT((C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>8.5726308680591128</v>
       </c>
       <c r="Q9" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="R9" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S9" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2939,11 +2549,11 @@
         <v>5.0990195135927845</v>
       </c>
       <c r="K10" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L10" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M10" s="50">
@@ -2951,19 +2561,19 @@
         <v>3</v>
       </c>
       <c r="P10" s="48">
-        <f>SQRT((C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="Q10" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="R10" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S10" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -2994,11 +2604,11 @@
         <v>18.902645317521035</v>
       </c>
       <c r="K11" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L11" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M11" s="50" t="str">
@@ -3006,19 +2616,19 @@
         <v/>
       </c>
       <c r="P11" s="48">
-        <f>SQRT((C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>20.717384004743455</v>
       </c>
       <c r="Q11" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R11" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S11" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3049,11 +2659,11 @@
         <v>8.0659779320303127</v>
       </c>
       <c r="K12" s="49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="L12" s="49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="M12" s="50">
@@ -3061,19 +2671,19 @@
         <v>3</v>
       </c>
       <c r="P12" s="48">
-        <f>SQRT((C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>5.4460995216760395</v>
       </c>
       <c r="Q12" s="49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="R12" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S12" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -3104,11 +2714,11 @@
         <v>15.288557812952796</v>
       </c>
       <c r="K13" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L13" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M13" s="50">
@@ -3116,19 +2726,19 @@
         <v>2</v>
       </c>
       <c r="P13" s="48">
-        <f>SQRT((C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>16.490603384958355</v>
       </c>
       <c r="Q13" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R13" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S13" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3159,11 +2769,11 @@
         <v>24.305143488570479</v>
       </c>
       <c r="K14" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L14" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M14" s="50" t="str">
@@ -3171,19 +2781,19 @@
         <v/>
       </c>
       <c r="P14" s="48">
-        <f>SQRT((C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>26.524328455212583</v>
       </c>
       <c r="Q14" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R14" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S14" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3214,11 +2824,11 @@
         <v>26.038433132583073</v>
       </c>
       <c r="K15" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L15" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M15" s="50" t="str">
@@ -3226,19 +2836,19 @@
         <v/>
       </c>
       <c r="P15" s="48">
-        <f>SQRT((C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>28.583211855912904</v>
       </c>
       <c r="Q15" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R15" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S15" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3269,11 +2879,11 @@
         <v>25.675085199469152</v>
       </c>
       <c r="K16" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L16" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M16" s="50" t="str">
@@ -3281,19 +2891,19 @@
         <v/>
       </c>
       <c r="P16" s="48">
-        <f>SQRT((C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>27.987675859206316</v>
       </c>
       <c r="Q16" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R16" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S16" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3324,11 +2934,11 @@
         <v>16.332482971061076</v>
       </c>
       <c r="K17" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L17" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M17" s="50" t="str">
@@ -3336,19 +2946,19 @@
         <v/>
       </c>
       <c r="P17" s="48">
-        <f>SQRT((C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>17.414074767267998</v>
       </c>
       <c r="Q17" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R17" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S17" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3379,11 +2989,11 @@
         <v>14.438143925034131</v>
       </c>
       <c r="K18" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L18" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M18" s="50">
@@ -3391,19 +3001,19 @@
         <v>3</v>
       </c>
       <c r="P18" s="48">
-        <f>SQRT((C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>15.134728276384747</v>
       </c>
       <c r="Q18" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R18" s="49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S18" s="50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
     </row>
@@ -3434,11 +3044,11 @@
         <v>20.334453521056322</v>
       </c>
       <c r="K19" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L19" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M19" s="50" t="str">
@@ -3446,19 +3056,19 @@
         <v/>
       </c>
       <c r="P19" s="48">
-        <f>SQRT((C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>21.720727427966125</v>
       </c>
       <c r="Q19" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R19" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S19" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3489,11 +3099,11 @@
         <v>27.790465991055278</v>
       </c>
       <c r="K20" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L20" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M20" s="50" t="str">
@@ -3501,19 +3111,19 @@
         <v/>
       </c>
       <c r="P20" s="48">
-        <f>SQRT((C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>29.718849237478896</v>
       </c>
       <c r="Q20" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R20" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S20" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3544,11 +3154,11 @@
         <v>23.998749967446219</v>
       </c>
       <c r="K21" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L21" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M21" s="50" t="str">
@@ -3556,7 +3166,7 @@
         <v/>
       </c>
       <c r="P21" s="48">
-        <f>SQRT((C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>25.734024170346927</v>
       </c>
       <c r="Q21" s="49" t="str">
@@ -3599,11 +3209,11 @@
         <v>26.365507770570247</v>
       </c>
       <c r="K22" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L22" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M22" s="50" t="str">
@@ -3611,19 +3221,19 @@
         <v/>
       </c>
       <c r="P22" s="48">
-        <f>SQRT((C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>28.095195318772923</v>
       </c>
       <c r="Q22" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R22" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S22" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3666,19 +3276,19 @@
         <v/>
       </c>
       <c r="P23" s="48">
-        <f>SQRT((C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>26.129485260907838</v>
       </c>
       <c r="Q23" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R23" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S23" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3709,11 +3319,11 @@
         <v>24.202066027510956</v>
       </c>
       <c r="K24" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L24" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M24" s="50" t="str">
@@ -3721,19 +3331,19 @@
         <v/>
       </c>
       <c r="P24" s="48">
-        <f>SQRT((C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>24.810078597215284</v>
       </c>
       <c r="Q24" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R24" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S24" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3764,11 +3374,11 @@
         <v>26.811191693022522</v>
       </c>
       <c r="K25" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L25" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M25" s="50" t="str">
@@ -3776,19 +3386,19 @@
         <v/>
       </c>
       <c r="P25" s="48">
-        <f>SQRT((C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>27.688264662127164</v>
       </c>
       <c r="Q25" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R25" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S25" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3819,11 +3429,11 @@
         <v>33.952172242729922</v>
       </c>
       <c r="K26" s="49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L26" s="49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M26" s="50" t="str">
@@ -3831,19 +3441,19 @@
         <v/>
       </c>
       <c r="P26" s="48">
-        <f>SQRT((C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>35.57035282366482</v>
       </c>
       <c r="Q26" s="49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R26" s="49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S26" s="50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -3874,11 +3484,11 @@
         <v>39.243980430124566</v>
       </c>
       <c r="K27" s="54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="L27" s="54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="M27" s="55" t="str">
@@ -3886,19 +3496,19 @@
         <v/>
       </c>
       <c r="P27" s="53">
-        <f>SQRT((C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2)</f>
+        <f t="shared" si="2"/>
         <v>41.046193489774417</v>
       </c>
       <c r="Q27" s="54" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="R27" s="54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="S27" s="55" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
@@ -4137,24 +3747,6 @@
       <c r="L33" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="N33" s="45">
-        <v>3</v>
-      </c>
-      <c r="O33" s="45">
-        <v>8</v>
-      </c>
-      <c r="P33" s="45">
-        <v>9</v>
-      </c>
-      <c r="Q33" s="45">
-        <v>15</v>
-      </c>
-      <c r="R33" s="45">
-        <v>16</v>
-      </c>
-      <c r="S33" s="45" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="34" spans="2:19" x14ac:dyDescent="0.25">
       <c r="K34" s="45">
@@ -4162,18 +3754,6 @@
       </c>
       <c r="L34" s="45" t="s">
         <v>13</v>
-      </c>
-      <c r="N34" s="45">
-        <v>5</v>
-      </c>
-      <c r="O34" s="45">
-        <v>7</v>
-      </c>
-      <c r="P34" s="45">
-        <v>9</v>
-      </c>
-      <c r="S34" s="45" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4285,639 +3865,639 @@
     </row>
     <row r="39" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D39" s="48">
-        <f t="shared" ref="D39:D62" si="7">SQRT((C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2)</f>
+        <f t="shared" ref="D39:D62" si="8">SQRT((C4-$C$31)^2+(D4-$D$31)^2+(E4-$E$31)^2+(F4-$F$31)^2+(G4-$G$31)^2)</f>
         <v>8.4852813742385695</v>
       </c>
       <c r="E39" s="49" t="str">
-        <f t="shared" ref="E39:E62" si="8">IF($D39&lt;=SMALL($D$38:$D$62,5),$H4,"")</f>
+        <f t="shared" ref="E39:E62" si="9">IF($D39&lt;=SMALL($D$38:$D$62,5),$H4,"")</f>
         <v/>
       </c>
       <c r="F39" s="49">
-        <f t="shared" ref="F39:F62" si="9">IF($D39&lt;=SMALL($D$38:$D$62,7),$H4,"")</f>
+        <f t="shared" ref="F39:F62" si="10">IF($D39&lt;=SMALL($D$38:$D$62,7),$H4,"")</f>
         <v>3</v>
       </c>
       <c r="G39" s="50">
-        <f t="shared" ref="G39:G62" si="10">IF($D39&lt;=SMALL($D$38:$D$62,9),$H4,"")</f>
+        <f t="shared" ref="G39:G62" si="11">IF($D39&lt;=SMALL($D$38:$D$62,9),$H4,"")</f>
         <v>3</v>
       </c>
       <c r="J39" s="48">
-        <f t="shared" ref="J39:J62" si="11">SQRT((C4-$C$32)^2+(D4-$D$32)^2+(E4-$E$32)^2+(F4-$F$32)^2+(G4-$G$32)^2)</f>
+        <f t="shared" ref="J39:J62" si="12">SQRT((C4-$C$32)^2+(D4-$D$32)^2+(E4-$E$32)^2+(F4-$F$32)^2+(G4-$G$32)^2)</f>
         <v>15.791136754521505</v>
       </c>
       <c r="K39" s="49" t="str">
-        <f t="shared" ref="K39:K62" si="12">IF($J39&lt;=SMALL($J$38:$J$62,5),$H4,"")</f>
+        <f t="shared" ref="K39:K62" si="13">IF($J39&lt;=SMALL($J$38:$J$62,5),$H4,"")</f>
         <v/>
       </c>
       <c r="L39" s="49" t="str">
-        <f t="shared" ref="L39:L62" si="13">IF($J39&lt;=SMALL($J$38:$J$62,7),$H4,"")</f>
+        <f t="shared" ref="L39:L62" si="14">IF($J39&lt;=SMALL($J$38:$J$62,7),$H4,"")</f>
         <v/>
       </c>
       <c r="M39" s="50" t="str">
-        <f t="shared" ref="M39:M62" si="14">IF($J39&lt;=SMALL($J$38:$J$62,9),$H4,"")</f>
+        <f t="shared" ref="M39:M62" si="15">IF($J39&lt;=SMALL($J$38:$J$62,9),$H4,"")</f>
         <v/>
       </c>
       <c r="P39" s="48">
-        <f t="shared" ref="P39:P61" si="15">SQRT((C4-$C$33)^2+(D4-$D$33)^2+(E4-$E$33)^2+(F4-$F$33)^2+(G4-$G$33)^2)</f>
+        <f t="shared" ref="P39:P61" si="16">SQRT((C4-$C$33)^2+(D4-$D$33)^2+(E4-$E$33)^2+(F4-$F$33)^2+(G4-$G$33)^2)</f>
         <v>16.342888361608544</v>
       </c>
       <c r="Q39" s="49" t="str">
-        <f t="shared" ref="Q39:Q62" si="16">IF($P39&lt;=SMALL($P$38:$P$62,5),$H4,"")</f>
+        <f t="shared" ref="Q39:Q62" si="17">IF($P39&lt;=SMALL($P$38:$P$62,5),$H4,"")</f>
         <v/>
       </c>
       <c r="R39" s="49" t="str">
-        <f t="shared" ref="R39:R62" si="17">IF($P39&lt;=SMALL($P$38:$P$62,7),$H4,"")</f>
+        <f t="shared" ref="R39:R62" si="18">IF($P39&lt;=SMALL($P$38:$P$62,7),$H4,"")</f>
         <v/>
       </c>
       <c r="S39" s="50" t="str">
-        <f t="shared" ref="S39:S62" si="18">IF($P39&lt;=SMALL($P$38:$P$62,9),$H4,"")</f>
+        <f t="shared" ref="S39:S62" si="19">IF($P39&lt;=SMALL($P$38:$P$62,9),$H4,"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D40" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.902645317521035</v>
       </c>
       <c r="E40" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F40" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G40" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J40" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.332482971061076</v>
       </c>
       <c r="K40" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L40" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M40" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P40" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>14.438143925034131</v>
       </c>
       <c r="Q40" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R40" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S40" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D41" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6550732527899354</v>
       </c>
       <c r="E41" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F41" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G41" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J41" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.329085148259743</v>
       </c>
       <c r="K41" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="L41" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="M41" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="P41" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.582745788456206</v>
       </c>
       <c r="Q41" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="R41" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S41" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D42" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.241581909060729</v>
       </c>
       <c r="E42" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F42" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G42" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J42" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.665761869676578</v>
       </c>
       <c r="K42" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L42" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="M42" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P42" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.898061869908981</v>
       </c>
       <c r="Q42" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R42" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S42" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D43" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0669730340395311</v>
       </c>
       <c r="E43" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F43" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G43" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J43" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>13.313526955694346</v>
       </c>
       <c r="K43" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L43" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M43" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="P43" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.829087149927503</v>
       </c>
       <c r="Q43" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R43" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S43" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D44" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>13.662357044082841</v>
       </c>
       <c r="E44" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F44" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G44" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J44" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>11.736268572250721</v>
       </c>
       <c r="K44" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L44" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="M44" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P44" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.674330815939728</v>
       </c>
       <c r="Q44" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R44" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S44" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D45" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20.717384004743455</v>
       </c>
       <c r="E45" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F45" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G45" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J45" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.414074767267998</v>
       </c>
       <c r="K45" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L45" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M45" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P45" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.134728276384747</v>
       </c>
       <c r="Q45" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R45" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S45" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D46" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E46" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F46" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G46" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J46" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15.967466924969658</v>
       </c>
       <c r="K46" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L46" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M46" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P46" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.643412368360039</v>
       </c>
       <c r="Q46" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R46" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S46" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D47" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.392239648762892</v>
       </c>
       <c r="E47" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F47" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G47" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J47" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.685622553563892</v>
       </c>
       <c r="K47" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L47" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M47" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P47" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>15.427248620541512</v>
       </c>
       <c r="Q47" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R47" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S47" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="48" spans="2:19" x14ac:dyDescent="0.25">
       <c r="D48" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.0915442605965593</v>
       </c>
       <c r="E48" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F48" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G48" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J48" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10.133607452432722</v>
       </c>
       <c r="K48" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="L48" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="M48" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="P48" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>11.838918869558993</v>
       </c>
       <c r="Q48" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="R48" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S48" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D49" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.3552378781217218</v>
       </c>
       <c r="E49" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F49" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G49" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J49" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>18.928549865216826</v>
       </c>
       <c r="K49" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L49" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M49" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P49" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.231509170544403</v>
       </c>
       <c r="Q49" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R49" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S49" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="50" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D50" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.188719252192593</v>
       </c>
       <c r="E50" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F50" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G50" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J50" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.639085008382402</v>
       </c>
       <c r="K50" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L50" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M50" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P50" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24.707488743294004</v>
       </c>
       <c r="Q50" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R50" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S50" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D51" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.702336193560731</v>
       </c>
       <c r="E51" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F51" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G51" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J51" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>21.402336321065508</v>
       </c>
       <c r="K51" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L51" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M51" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P51" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>24.733580412063272</v>
       </c>
       <c r="Q51" s="49" t="str">
@@ -4935,173 +4515,173 @@
     </row>
     <row r="52" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D52" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.967466924969658</v>
       </c>
       <c r="E52" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F52" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G52" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J52" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K52" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="L52" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="M52" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P52" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>5.1778373863998484</v>
       </c>
       <c r="Q52" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R52" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S52" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="53" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D53" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>17.643412368360039</v>
       </c>
       <c r="E53" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F53" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G53" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J53" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.1778373863998484</v>
       </c>
       <c r="K53" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="L53" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="M53" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="P53" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q53" s="49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="R53" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="S53" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D54" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.151847122568386</v>
       </c>
       <c r="E54" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F54" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G54" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J54" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>9.0299501659754462</v>
       </c>
       <c r="K54" s="49">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
       <c r="L54" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="M54" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="P54" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>12.389108119634761</v>
       </c>
       <c r="Q54" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R54" s="49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="S54" s="50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D55" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.7467943448089631</v>
       </c>
       <c r="E55" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F55" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G55" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="J55" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>20.098756180420718</v>
       </c>
       <c r="K55" s="49" t="str">
@@ -5117,19 +4697,19 @@
         <v/>
       </c>
       <c r="P55" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>22.9627959970035</v>
       </c>
       <c r="Q55" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R55" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S55" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -5139,331 +4719,331 @@
         <v>8.4208075622234713</v>
       </c>
       <c r="E56" s="49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="F56" s="49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="G56" s="50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="J56" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.186105152259451</v>
       </c>
       <c r="K56" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L56" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M56" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P56" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>19.456104440509151</v>
       </c>
       <c r="Q56" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R56" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S56" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D57" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>11.220071301021219</v>
       </c>
       <c r="E57" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F57" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G57" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J57" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>17.580955605427139</v>
       </c>
       <c r="K57" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L57" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M57" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P57" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.913153755471697</v>
       </c>
       <c r="Q57" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R57" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S57" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D58" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>14.005713120009277</v>
       </c>
       <c r="E58" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F58" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G58" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J58" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.866068747318504</v>
       </c>
       <c r="K58" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L58" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M58" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P58" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>18.630888330941172</v>
       </c>
       <c r="Q58" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R58" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S58" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D59" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.837834708392222</v>
       </c>
       <c r="E59" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F59" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G59" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J59" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>14.466858677681204</v>
       </c>
       <c r="K59" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L59" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M59" s="50">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2</v>
       </c>
       <c r="P59" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>17.153425313913253</v>
       </c>
       <c r="Q59" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R59" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S59" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D60" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>12.534352795417879</v>
       </c>
       <c r="E60" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F60" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G60" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J60" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>16.624981202996889</v>
       </c>
       <c r="K60" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L60" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M60" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P60" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>20.00349969380358</v>
       </c>
       <c r="Q60" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R60" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S60" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="61" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D61" s="48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18.980516325959101</v>
       </c>
       <c r="E61" s="49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F61" s="49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G61" s="50" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J61" s="48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>22.836374493338472</v>
       </c>
       <c r="K61" s="49" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L61" s="49" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M61" s="50" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P61" s="48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>26.646012834943992</v>
       </c>
       <c r="Q61" s="49" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R61" s="49" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S61" s="50" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
     <row r="62" spans="4:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22.648178734723903</v>
       </c>
       <c r="E62" s="54" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="F62" s="54" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="G62" s="55" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J62" s="53">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>27.541604891509134</v>
       </c>
       <c r="K62" s="54" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="L62" s="54" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="M62" s="55" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="P62" s="53">
@@ -5471,15 +5051,15 @@
         <v>31.260358283295474</v>
       </c>
       <c r="Q62" s="54" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="R62" s="54" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="S62" s="55" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -6014,27 +5594,27 @@
         <v/>
       </c>
       <c r="R3" s="17">
-        <f>SQRT((C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2)</f>
+        <f t="shared" ref="R3:R27" si="6">SQRT((C3-$C$30)^2+(D3-$D$30)^2+(E3-$E$30)^2+(F3-$F$30)^2+(G3-$G$30)^2)</f>
         <v>40.193283020922784</v>
       </c>
       <c r="S3" s="2" t="str">
-        <f>IF($R3&lt;=SMALL($R$3:$R$27,1),$H3,"")</f>
+        <f t="shared" ref="S3:S27" si="7">IF($R3&lt;=SMALL($R$3:$R$27,1),$H3,"")</f>
         <v/>
       </c>
       <c r="T3" s="2" t="str">
-        <f>IF($R3&lt;=SMALL($R$3:$R$27,5),$H3,"")</f>
+        <f t="shared" ref="T3:T27" si="8">IF($R3&lt;=SMALL($R$3:$R$27,5),$H3,"")</f>
         <v/>
       </c>
       <c r="U3" s="2" t="str">
-        <f>IF($R3&lt;=SMALL($R$3:$R$27,9),$H3,"")</f>
+        <f t="shared" ref="U3:U27" si="9">IF($R3&lt;=SMALL($R$3:$R$27,9),$H3,"")</f>
         <v/>
       </c>
       <c r="V3" s="2" t="str">
-        <f>IF($R3&lt;=SMALL($R$3:$R$27,13),$H3,"")</f>
+        <f t="shared" ref="V3:V27" si="10">IF($R3&lt;=SMALL($R$3:$R$27,13),$H3,"")</f>
         <v/>
       </c>
       <c r="W3" s="20" t="str">
-        <f>IF($R3&lt;=SMALL($R$3:$R$27,15),$H3,"")</f>
+        <f t="shared" ref="W3:W27" si="11">IF($R3&lt;=SMALL($R$3:$R$27,15),$H3,"")</f>
         <v/>
       </c>
     </row>
@@ -6085,27 +5665,27 @@
         <v/>
       </c>
       <c r="R4" s="17">
-        <f>SQRT((C4-$C$30)^2+(D4-$D$30)^2+(E4-$E$30)^2+(F4-$F$30)^2+(G4-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>25.664372191814863</v>
       </c>
       <c r="S4" s="2" t="str">
-        <f>IF($R4&lt;=SMALL($R$3:$R$27,1),$H4,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T4" s="2" t="str">
-        <f>IF($R4&lt;=SMALL($R$3:$R$27,5),$H4,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U4" s="2" t="str">
-        <f>IF($R4&lt;=SMALL($R$3:$R$27,9),$H4,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V4" s="2" t="str">
-        <f>IF($R4&lt;=SMALL($R$3:$R$27,13),$H4,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W4" s="20" t="str">
-        <f>IF($R4&lt;=SMALL($R$3:$R$27,15),$H4,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6156,27 +5736,27 @@
         <v/>
       </c>
       <c r="R5" s="17">
-        <f>SQRT((C5-$C$30)^2+(D5-$D$30)^2+(E5-$E$30)^2+(F5-$F$30)^2+(G5-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>33.952172242729922</v>
       </c>
       <c r="S5" s="2" t="str">
-        <f>IF($R5&lt;=SMALL($R$3:$R$27,1),$H5,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T5" s="2" t="str">
-        <f>IF($R5&lt;=SMALL($R$3:$R$27,5),$H5,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U5" s="2" t="str">
-        <f>IF($R5&lt;=SMALL($R$3:$R$27,9),$H5,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V5" s="2" t="str">
-        <f>IF($R5&lt;=SMALL($R$3:$R$27,13),$H5,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W5" s="20" t="str">
-        <f>IF($R5&lt;=SMALL($R$3:$R$27,15),$H5,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6227,27 +5807,27 @@
         <v>2</v>
       </c>
       <c r="R6" s="17">
-        <f>SQRT((C6-$C$30)^2+(D6-$D$30)^2+(E6-$E$30)^2+(F6-$F$30)^2+(G6-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>21.68155898453799</v>
       </c>
       <c r="S6" s="2" t="str">
-        <f>IF($R6&lt;=SMALL($R$3:$R$27,1),$H6,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T6" s="2" t="str">
-        <f>IF($R6&lt;=SMALL($R$3:$R$27,5),$H6,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U6" s="2" t="str">
-        <f>IF($R6&lt;=SMALL($R$3:$R$27,9),$H6,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V6" s="2" t="str">
-        <f>IF($R6&lt;=SMALL($R$3:$R$27,13),$H6,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W6" s="20" t="str">
-        <f>IF($R6&lt;=SMALL($R$3:$R$27,15),$H6,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6298,27 +5878,27 @@
         <v/>
       </c>
       <c r="R7" s="17">
-        <f>SQRT((C7-$C$30)^2+(D7-$D$30)^2+(E7-$E$30)^2+(F7-$F$30)^2+(G7-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>24.667590072806057</v>
       </c>
       <c r="S7" s="2" t="str">
-        <f>IF($R7&lt;=SMALL($R$3:$R$27,1),$H7,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T7" s="2" t="str">
-        <f>IF($R7&lt;=SMALL($R$3:$R$27,5),$H7,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U7" s="2" t="str">
-        <f>IF($R7&lt;=SMALL($R$3:$R$27,9),$H7,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V7" s="2" t="str">
-        <f>IF($R7&lt;=SMALL($R$3:$R$27,13),$H7,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W7" s="20" t="str">
-        <f>IF($R7&lt;=SMALL($R$3:$R$27,15),$H7,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6369,27 +5949,27 @@
         <v>2</v>
       </c>
       <c r="R8" s="17">
-        <f>SQRT((C8-$C$30)^2+(D8-$D$30)^2+(E8-$E$30)^2+(F8-$F$30)^2+(G8-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>19.627786426390522</v>
       </c>
       <c r="S8" s="2" t="str">
-        <f>IF($R8&lt;=SMALL($R$3:$R$27,1),$H8,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T8" s="2" t="str">
-        <f>IF($R8&lt;=SMALL($R$3:$R$27,5),$H8,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U8" s="2" t="str">
-        <f>IF($R8&lt;=SMALL($R$3:$R$27,9),$H8,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V8" s="2" t="str">
-        <f>IF($R8&lt;=SMALL($R$3:$R$27,13),$H8,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W8" s="20">
-        <f>IF($R8&lt;=SMALL($R$3:$R$27,15),$H8,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -6440,27 +6020,27 @@
         <v/>
       </c>
       <c r="R9" s="17">
-        <f>SQRT((C9-$C$30)^2+(D9-$D$30)^2+(E9-$E$30)^2+(F9-$F$30)^2+(G9-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>27.691876065012281</v>
       </c>
       <c r="S9" s="2" t="str">
-        <f>IF($R9&lt;=SMALL($R$3:$R$27,1),$H9,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T9" s="2" t="str">
-        <f>IF($R9&lt;=SMALL($R$3:$R$27,5),$H9,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U9" s="2" t="str">
-        <f>IF($R9&lt;=SMALL($R$3:$R$27,9),$H9,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V9" s="2" t="str">
-        <f>IF($R9&lt;=SMALL($R$3:$R$27,13),$H9,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W9" s="20" t="str">
-        <f>IF($R9&lt;=SMALL($R$3:$R$27,15),$H9,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6511,27 +6091,27 @@
         <v/>
       </c>
       <c r="R10" s="17">
-        <f>SQRT((C10-$C$30)^2+(D10-$D$30)^2+(E10-$E$30)^2+(F10-$F$30)^2+(G10-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>35.57035282366482</v>
       </c>
       <c r="S10" s="2" t="str">
-        <f>IF($R10&lt;=SMALL($R$3:$R$27,1),$H10,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T10" s="2" t="str">
-        <f>IF($R10&lt;=SMALL($R$3:$R$27,5),$H10,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U10" s="2" t="str">
-        <f>IF($R10&lt;=SMALL($R$3:$R$27,9),$H10,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V10" s="2" t="str">
-        <f>IF($R10&lt;=SMALL($R$3:$R$27,13),$H10,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W10" s="20" t="str">
-        <f>IF($R10&lt;=SMALL($R$3:$R$27,15),$H10,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6582,27 +6162,27 @@
         <v>2</v>
       </c>
       <c r="R11" s="17">
-        <f>SQRT((C11-$C$30)^2+(D11-$D$30)^2+(E11-$E$30)^2+(F11-$F$30)^2+(G11-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>18.980516325959101</v>
       </c>
       <c r="S11" s="2" t="str">
-        <f>IF($R11&lt;=SMALL($R$3:$R$27,1),$H11,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T11" s="2" t="str">
-        <f>IF($R11&lt;=SMALL($R$3:$R$27,5),$H11,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U11" s="2" t="str">
-        <f>IF($R11&lt;=SMALL($R$3:$R$27,9),$H11,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V11" s="2">
-        <f>IF($R11&lt;=SMALL($R$3:$R$27,13),$H11,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W11" s="20">
-        <f>IF($R11&lt;=SMALL($R$3:$R$27,15),$H11,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -6653,27 +6233,27 @@
         <v/>
       </c>
       <c r="R12" s="17">
-        <f>SQRT((C12-$C$30)^2+(D12-$D$30)^2+(E12-$E$30)^2+(F12-$F$30)^2+(G12-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>32.040755296965145</v>
       </c>
       <c r="S12" s="2" t="str">
-        <f>IF($R12&lt;=SMALL($R$3:$R$27,1),$H12,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T12" s="2" t="str">
-        <f>IF($R12&lt;=SMALL($R$3:$R$27,5),$H12,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U12" s="2" t="str">
-        <f>IF($R12&lt;=SMALL($R$3:$R$27,9),$H12,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V12" s="2" t="str">
-        <f>IF($R12&lt;=SMALL($R$3:$R$27,13),$H12,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W12" s="20" t="str">
-        <f>IF($R12&lt;=SMALL($R$3:$R$27,15),$H12,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -6724,27 +6304,27 @@
         <v>2</v>
       </c>
       <c r="R13" s="17">
-        <f>SQRT((C13-$C$30)^2+(D13-$D$30)^2+(E13-$E$30)^2+(F13-$F$30)^2+(G13-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>19.470233691458354</v>
       </c>
       <c r="S13" s="2" t="str">
-        <f>IF($R13&lt;=SMALL($R$3:$R$27,1),$H13,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T13" s="2" t="str">
-        <f>IF($R13&lt;=SMALL($R$3:$R$27,5),$H13,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U13" s="2" t="str">
-        <f>IF($R13&lt;=SMALL($R$3:$R$27,9),$H13,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V13" s="2" t="str">
-        <f>IF($R13&lt;=SMALL($R$3:$R$27,13),$H13,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W13" s="20">
-        <f>IF($R13&lt;=SMALL($R$3:$R$27,15),$H13,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -6795,27 +6375,27 @@
         <v>2</v>
       </c>
       <c r="R14" s="17">
-        <f>SQRT((C14-$C$30)^2+(D14-$D$30)^2+(E14-$E$30)^2+(F14-$F$30)^2+(G14-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>13.486660075793415</v>
       </c>
       <c r="S14" s="2" t="str">
-        <f>IF($R14&lt;=SMALL($R$3:$R$27,1),$H14,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T14" s="2" t="str">
-        <f>IF($R14&lt;=SMALL($R$3:$R$27,5),$H14,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U14" s="2">
-        <f>IF($R14&lt;=SMALL($R$3:$R$27,9),$H14,"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V14" s="2">
-        <f>IF($R14&lt;=SMALL($R$3:$R$27,13),$H14,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W14" s="20">
-        <f>IF($R14&lt;=SMALL($R$3:$R$27,15),$H14,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -6866,27 +6446,27 @@
         <v>1</v>
       </c>
       <c r="R15" s="17">
-        <f>SQRT((C15-$C$30)^2+(D15-$D$30)^2+(E15-$E$30)^2+(F15-$F$30)^2+(G15-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>14.150971698084906</v>
       </c>
       <c r="S15" s="2" t="str">
-        <f>IF($R15&lt;=SMALL($R$3:$R$27,1),$H15,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T15" s="2" t="str">
-        <f>IF($R15&lt;=SMALL($R$3:$R$27,5),$H15,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U15" s="2" t="str">
-        <f>IF($R15&lt;=SMALL($R$3:$R$27,9),$H15,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V15" s="2">
-        <f>IF($R15&lt;=SMALL($R$3:$R$27,13),$H15,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W15" s="20">
-        <f>IF($R15&lt;=SMALL($R$3:$R$27,15),$H15,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -6937,27 +6517,27 @@
         <v>1</v>
       </c>
       <c r="R16" s="17">
-        <f>SQRT((C16-$C$30)^2+(D16-$D$30)^2+(E16-$E$30)^2+(F16-$F$30)^2+(G16-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>14.309437445266672</v>
       </c>
       <c r="S16" s="2" t="str">
-        <f>IF($R16&lt;=SMALL($R$3:$R$27,1),$H16,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T16" s="2" t="str">
-        <f>IF($R16&lt;=SMALL($R$3:$R$27,5),$H16,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U16" s="2" t="str">
-        <f>IF($R16&lt;=SMALL($R$3:$R$27,9),$H16,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V16" s="2">
-        <f>IF($R16&lt;=SMALL($R$3:$R$27,13),$H16,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W16" s="20">
-        <f>IF($R16&lt;=SMALL($R$3:$R$27,15),$H16,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7008,27 +6588,27 @@
         <v/>
       </c>
       <c r="R17" s="17">
-        <f>SQRT((C17-$C$30)^2+(D17-$D$30)^2+(E17-$E$30)^2+(F17-$F$30)^2+(G17-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>22.836374493338472</v>
       </c>
       <c r="S17" s="2" t="str">
-        <f>IF($R17&lt;=SMALL($R$3:$R$27,1),$H17,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T17" s="2" t="str">
-        <f>IF($R17&lt;=SMALL($R$3:$R$27,5),$H17,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U17" s="2" t="str">
-        <f>IF($R17&lt;=SMALL($R$3:$R$27,9),$H17,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V17" s="2" t="str">
-        <f>IF($R17&lt;=SMALL($R$3:$R$27,13),$H17,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W17" s="20" t="str">
-        <f>IF($R17&lt;=SMALL($R$3:$R$27,15),$H17,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -7079,27 +6659,27 @@
         <v/>
       </c>
       <c r="R18" s="17">
-        <f>SQRT((C18-$C$30)^2+(D18-$D$30)^2+(E18-$E$30)^2+(F18-$F$30)^2+(G18-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>26.646012834943992</v>
       </c>
       <c r="S18" s="2" t="str">
-        <f>IF($R18&lt;=SMALL($R$3:$R$27,1),$H18,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T18" s="2" t="str">
-        <f>IF($R18&lt;=SMALL($R$3:$R$27,5),$H18,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U18" s="2" t="str">
-        <f>IF($R18&lt;=SMALL($R$3:$R$27,9),$H18,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V18" s="2" t="str">
-        <f>IF($R18&lt;=SMALL($R$3:$R$27,13),$H18,"")</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="W18" s="20" t="str">
-        <f>IF($R18&lt;=SMALL($R$3:$R$27,15),$H18,"")</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
@@ -7150,27 +6730,27 @@
         <v>2</v>
       </c>
       <c r="R19" s="17">
-        <f>SQRT((C19-$C$30)^2+(D19-$D$30)^2+(E19-$E$30)^2+(F19-$F$30)^2+(G19-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>14.769563297538625</v>
       </c>
       <c r="S19" s="2" t="str">
-        <f>IF($R19&lt;=SMALL($R$3:$R$27,1),$H19,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T19" s="2" t="str">
-        <f>IF($R19&lt;=SMALL($R$3:$R$27,5),$H19,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U19" s="2" t="str">
-        <f>IF($R19&lt;=SMALL($R$3:$R$27,9),$H19,"")</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="V19" s="2">
-        <f>IF($R19&lt;=SMALL($R$3:$R$27,13),$H19,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W19" s="20">
-        <f>IF($R19&lt;=SMALL($R$3:$R$27,15),$H19,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -7221,27 +6801,27 @@
         <v>1</v>
       </c>
       <c r="R20" s="17">
-        <f>SQRT((C20-$C$30)^2+(D20-$D$30)^2+(E20-$E$30)^2+(F20-$F$30)^2+(G20-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>13.611024943037904</v>
       </c>
       <c r="S20" s="2" t="str">
-        <f>IF($R20&lt;=SMALL($R$3:$R$27,1),$H20,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T20" s="2" t="str">
-        <f>IF($R20&lt;=SMALL($R$3:$R$27,5),$H20,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U20" s="2">
-        <f>IF($R20&lt;=SMALL($R$3:$R$27,9),$H20,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V20" s="2">
-        <f>IF($R20&lt;=SMALL($R$3:$R$27,13),$H20,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W20" s="20">
-        <f>IF($R20&lt;=SMALL($R$3:$R$27,15),$H20,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7292,27 +6872,27 @@
         <v>2</v>
       </c>
       <c r="R21" s="17">
-        <f>SQRT((C21-$C$30)^2+(D21-$D$30)^2+(E21-$E$30)^2+(F21-$F$30)^2+(G21-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>10.889903580840373</v>
       </c>
       <c r="S21" s="2" t="str">
-        <f>IF($R21&lt;=SMALL($R$3:$R$27,1),$H21,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T21" s="2" t="str">
-        <f>IF($R21&lt;=SMALL($R$3:$R$27,5),$H21,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U21" s="2">
-        <f>IF($R21&lt;=SMALL($R$3:$R$27,9),$H21,"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V21" s="2">
-        <f>IF($R21&lt;=SMALL($R$3:$R$27,13),$H21,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W21" s="20">
-        <f>IF($R21&lt;=SMALL($R$3:$R$27,15),$H21,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -7363,27 +6943,27 @@
         <v>2</v>
       </c>
       <c r="R22" s="17">
-        <f>SQRT((C22-$C$30)^2+(D22-$D$30)^2+(E22-$E$30)^2+(F22-$F$30)^2+(G22-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>8.1541400527584749</v>
       </c>
       <c r="S22" s="2" t="str">
-        <f>IF($R22&lt;=SMALL($R$3:$R$27,1),$H22,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T22" s="2">
-        <f>IF($R22&lt;=SMALL($R$3:$R$27,5),$H22,"")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="U22" s="2">
-        <f>IF($R22&lt;=SMALL($R$3:$R$27,9),$H22,"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V22" s="2">
-        <f>IF($R22&lt;=SMALL($R$3:$R$27,13),$H22,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W22" s="20">
-        <f>IF($R22&lt;=SMALL($R$3:$R$27,15),$H22,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -7434,27 +7014,27 @@
         <v>3</v>
       </c>
       <c r="R23" s="17">
-        <f>SQRT((C23-$C$30)^2+(D23-$D$30)^2+(E23-$E$30)^2+(F23-$F$30)^2+(G23-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>10.8397416943394</v>
       </c>
       <c r="S23" s="2" t="str">
-        <f>IF($R23&lt;=SMALL($R$3:$R$27,1),$H23,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T23" s="2">
-        <f>IF($R23&lt;=SMALL($R$3:$R$27,5),$H23,"")</f>
+        <f t="shared" si="8"/>
         <v>3</v>
       </c>
       <c r="U23" s="2">
-        <f>IF($R23&lt;=SMALL($R$3:$R$27,9),$H23,"")</f>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="V23" s="2">
-        <f>IF($R23&lt;=SMALL($R$3:$R$27,13),$H23,"")</f>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="W23" s="20">
-        <f>IF($R23&lt;=SMALL($R$3:$R$27,15),$H23,"")</f>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
     </row>
@@ -7505,27 +7085,27 @@
         <v>2</v>
       </c>
       <c r="R24" s="17">
-        <f>SQRT((C24-$C$30)^2+(D24-$D$30)^2+(E24-$E$30)^2+(F24-$F$30)^2+(G24-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>12.364869590901476</v>
       </c>
       <c r="S24" s="2" t="str">
-        <f>IF($R24&lt;=SMALL($R$3:$R$27,1),$H24,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T24" s="2" t="str">
-        <f>IF($R24&lt;=SMALL($R$3:$R$27,5),$H24,"")</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="U24" s="2">
-        <f>IF($R24&lt;=SMALL($R$3:$R$27,9),$H24,"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V24" s="2">
-        <f>IF($R24&lt;=SMALL($R$3:$R$27,13),$H24,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W24" s="20">
-        <f>IF($R24&lt;=SMALL($R$3:$R$27,15),$H24,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -7576,27 +7156,27 @@
         <v>2</v>
       </c>
       <c r="R25" s="17">
-        <f>SQRT((C25-$C$30)^2+(D25-$D$30)^2+(E25-$E$30)^2+(F25-$F$30)^2+(G25-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>9.0548329636719416</v>
       </c>
       <c r="S25" s="2" t="str">
-        <f>IF($R25&lt;=SMALL($R$3:$R$27,1),$H25,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T25" s="2">
-        <f>IF($R25&lt;=SMALL($R$3:$R$27,5),$H25,"")</f>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="U25" s="2">
-        <f>IF($R25&lt;=SMALL($R$3:$R$27,9),$H25,"")</f>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="V25" s="2">
-        <f>IF($R25&lt;=SMALL($R$3:$R$27,13),$H25,"")</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="W25" s="20">
-        <f>IF($R25&lt;=SMALL($R$3:$R$27,15),$H25,"")</f>
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
@@ -7647,27 +7227,27 @@
         <v>1</v>
       </c>
       <c r="R26" s="17">
-        <f>SQRT((C26-$C$30)^2+(D26-$D$30)^2+(E26-$E$30)^2+(F26-$F$30)^2+(G26-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S26" s="2">
-        <f>IF($R26&lt;=SMALL($R$3:$R$27,1),$H26,"")</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="T26" s="2">
-        <f>IF($R26&lt;=SMALL($R$3:$R$27,5),$H26,"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <f>IF($R26&lt;=SMALL($R$3:$R$27,9),$H26,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V26" s="2">
-        <f>IF($R26&lt;=SMALL($R$3:$R$27,13),$H26,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W26" s="20">
-        <f>IF($R26&lt;=SMALL($R$3:$R$27,15),$H26,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7718,27 +7298,27 @@
         <v/>
       </c>
       <c r="R27" s="21">
-        <f>SQRT((C27-$C$30)^2+(D27-$D$30)^2+(E27-$E$30)^2+(F27-$F$30)^2+(G27-$G$30)^2)</f>
+        <f t="shared" si="6"/>
         <v>8.3630138108220287</v>
       </c>
       <c r="S27" s="22" t="str">
-        <f>IF($R27&lt;=SMALL($R$3:$R$27,1),$H27,"")</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="T27" s="22">
-        <f>IF($R27&lt;=SMALL($R$3:$R$27,5),$H27,"")</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="U27" s="22">
-        <f>IF($R27&lt;=SMALL($R$3:$R$27,9),$H27,"")</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="V27" s="22">
-        <f>IF($R27&lt;=SMALL($R$3:$R$27,13),$H27,"")</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="W27" s="23">
-        <f>IF($R27&lt;=SMALL($R$3:$R$27,15),$H27,"")</f>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -7860,7 +7440,7 @@
         <v>10</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" ref="P30:P31" si="6">SUM(K30:O30)</f>
+        <f t="shared" ref="P30:P31" si="12">SUM(K30:O30)</f>
         <v>29</v>
       </c>
       <c r="R30" s="39">
@@ -7887,7 +7467,7 @@
         <v>9</v>
       </c>
       <c r="X30" s="18">
-        <f t="shared" ref="X30:X31" si="7">SUM(S30:W30)</f>
+        <f t="shared" ref="X30:X31" si="13">SUM(S30:W30)</f>
         <v>23</v>
       </c>
     </row>
@@ -7934,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="R31" s="41">
@@ -7961,7 +7541,7 @@
         <v>1</v>
       </c>
       <c r="X31" s="18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
     </row>
@@ -8045,251 +7625,251 @@
         <v>14</v>
       </c>
       <c r="J36" s="17">
-        <f t="shared" ref="J36:J60" si="8">SQRT((C3-$C$31)^2+(D3-$D$31)^2+(E3-$E$31)^2+(F3-$F$31)^2+(G3-$G$31)^2)</f>
+        <f t="shared" ref="J36:J60" si="14">SQRT((C3-$C$31)^2+(D3-$D$31)^2+(E3-$E$31)^2+(F3-$F$31)^2+(G3-$G$31)^2)</f>
         <v>44.812275104038179</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" ref="K36:K60" si="9">IF($J36&lt;=SMALL($J$36:$J$60,1),$H3,"")</f>
+        <f t="shared" ref="K36:K60" si="15">IF($J36&lt;=SMALL($J$36:$J$60,1),$H3,"")</f>
         <v/>
       </c>
       <c r="L36" s="2" t="str">
-        <f t="shared" ref="L36:L60" si="10">IF($J36&lt;=SMALL($J$36:$J$60,5),$H3,"")</f>
+        <f t="shared" ref="L36:L60" si="16">IF($J36&lt;=SMALL($J$36:$J$60,5),$H3,"")</f>
         <v/>
       </c>
       <c r="M36" s="2" t="str">
-        <f t="shared" ref="M36:M60" si="11">IF($J36&lt;=SMALL($J$36:$J$60,9),$H3,"")</f>
+        <f t="shared" ref="M36:M60" si="17">IF($J36&lt;=SMALL($J$36:$J$60,9),$H3,"")</f>
         <v/>
       </c>
       <c r="N36" s="2" t="str">
-        <f t="shared" ref="N36:N60" si="12">IF($J36&lt;=SMALL($J$36:$J$60,13),$H3,"")</f>
+        <f t="shared" ref="N36:N60" si="18">IF($J36&lt;=SMALL($J$36:$J$60,13),$H3,"")</f>
         <v/>
       </c>
       <c r="O36" s="20" t="str">
-        <f t="shared" ref="O36:O60" si="13">IF($J36&lt;=SMALL($J$36:$J$60,15),$H3,"")</f>
+        <f t="shared" ref="O36:O60" si="19">IF($J36&lt;=SMALL($J$36:$J$60,15),$H3,"")</f>
         <v/>
       </c>
       <c r="R36" s="17">
-        <f>SQRT((C3-$C$32)^2+(D3-$D$32)^2+(E3-$E$32)^2+(F3-$F$32)^2+(G3-$G$32)^2)</f>
+        <f t="shared" ref="R36:R60" si="20">SQRT((C3-$C$32)^2+(D3-$D$32)^2+(E3-$E$32)^2+(F3-$F$32)^2+(G3-$G$32)^2)</f>
         <v>33.56769280126354</v>
       </c>
       <c r="S36" s="2" t="str">
-        <f>IF($R36&lt;=SMALL($R$36:$R$60,1),$H3,"")</f>
+        <f t="shared" ref="S36:S60" si="21">IF($R36&lt;=SMALL($R$36:$R$60,1),$H3,"")</f>
         <v/>
       </c>
       <c r="T36" s="2" t="str">
-        <f>IF($R36&lt;=SMALL($R$36:$R$60,5),$H3,"")</f>
+        <f t="shared" ref="T36:T60" si="22">IF($R36&lt;=SMALL($R$36:$R$60,5),$H3,"")</f>
         <v/>
       </c>
       <c r="U36" s="2" t="str">
-        <f>IF($R36&lt;=SMALL($R$36:$R$60,9),$H3,"")</f>
+        <f t="shared" ref="U36:U60" si="23">IF($R36&lt;=SMALL($R$36:$R$60,9),$H3,"")</f>
         <v/>
       </c>
       <c r="V36" s="2" t="str">
-        <f>IF($R36&lt;=SMALL($R$36:$R$60,13),$H3,"")</f>
+        <f t="shared" ref="V36:V60" si="24">IF($R36&lt;=SMALL($R$36:$R$60,13),$H3,"")</f>
         <v/>
       </c>
       <c r="W36" s="20" t="str">
-        <f>IF($R36&lt;=SMALL($R$36:$R$60,15),$H3,"")</f>
+        <f t="shared" ref="W36:W60" si="25">IF($R36&lt;=SMALL($R$36:$R$60,15),$H3,"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J37" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>29.294026694874162</v>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L37" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M37" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N37" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O37" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R37" s="17">
-        <f>SQRT((C4-$C$32)^2+(D4-$D$32)^2+(E4-$E$32)^2+(F4-$F$32)^2+(G4-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>19.715729760777307</v>
       </c>
       <c r="S37" s="2" t="str">
-        <f>IF($R37&lt;=SMALL($R$36:$R$60,1),$H4,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T37" s="2" t="str">
-        <f>IF($R37&lt;=SMALL($R$36:$R$60,5),$H4,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U37" s="2" t="str">
-        <f>IF($R37&lt;=SMALL($R$36:$R$60,9),$H4,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V37" s="2" t="str">
-        <f>IF($R37&lt;=SMALL($R$36:$R$60,13),$H4,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W37" s="20" t="str">
-        <f>IF($R37&lt;=SMALL($R$36:$R$60,15),$H4,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="38" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J38" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>39.243980430124566</v>
       </c>
       <c r="K38" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L38" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M38" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N38" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O38" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R38" s="17">
-        <f>SQRT((C5-$C$32)^2+(D5-$D$32)^2+(E5-$E$32)^2+(F5-$F$32)^2+(G5-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>26.811191693022522</v>
       </c>
       <c r="S38" s="2" t="str">
-        <f>IF($R38&lt;=SMALL($R$36:$R$60,1),$H5,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T38" s="2" t="str">
-        <f>IF($R38&lt;=SMALL($R$36:$R$60,5),$H5,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U38" s="2" t="str">
-        <f>IF($R38&lt;=SMALL($R$36:$R$60,9),$H5,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V38" s="2" t="str">
-        <f>IF($R38&lt;=SMALL($R$36:$R$60,13),$H5,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W38" s="20" t="str">
-        <f>IF($R38&lt;=SMALL($R$36:$R$60,15),$H5,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="39" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J39" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>25.927784324928346</v>
       </c>
       <c r="K39" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L39" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M39" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N39" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O39" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R39" s="17">
-        <f>SQRT((C6-$C$32)^2+(D6-$D$32)^2+(E6-$E$32)^2+(F6-$F$32)^2+(G6-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>14.65127980757995</v>
       </c>
       <c r="S39" s="2" t="str">
-        <f>IF($R39&lt;=SMALL($R$36:$R$60,1),$H6,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T39" s="2" t="str">
-        <f>IF($R39&lt;=SMALL($R$36:$R$60,5),$H6,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U39" s="2" t="str">
-        <f>IF($R39&lt;=SMALL($R$36:$R$60,9),$H6,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V39" s="2" t="str">
-        <f>IF($R39&lt;=SMALL($R$36:$R$60,13),$H6,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W39" s="20">
-        <f>IF($R39&lt;=SMALL($R$36:$R$60,15),$H6,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J40" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>27.807373122968663</v>
       </c>
       <c r="K40" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L40" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M40" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N40" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O40" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R40" s="17">
-        <f>SQRT((C7-$C$32)^2+(D7-$D$32)^2+(E7-$E$32)^2+(F7-$F$32)^2+(G7-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>17.188949938841521</v>
       </c>
       <c r="S40" s="2" t="str">
-        <f>IF($R40&lt;=SMALL($R$36:$R$60,1),$H7,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T40" s="2" t="str">
-        <f>IF($R40&lt;=SMALL($R$36:$R$60,5),$H7,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U40" s="2" t="str">
-        <f>IF($R40&lt;=SMALL($R$36:$R$60,9),$H7,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V40" s="2" t="str">
-        <f>IF($R40&lt;=SMALL($R$36:$R$60,13),$H7,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W40" s="20" t="str">
-        <f>IF($R40&lt;=SMALL($R$36:$R$60,15),$H7,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -8313,51 +7893,51 @@
         <v>16</v>
       </c>
       <c r="J41" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>25.539968676566538</v>
       </c>
       <c r="K41" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L41" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M41" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N41" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O41" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R41" s="17">
-        <f>SQRT((C8-$C$32)^2+(D8-$D$32)^2+(E8-$E$32)^2+(F8-$F$32)^2+(G8-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>13.60661603779573</v>
       </c>
       <c r="S41" s="2" t="str">
-        <f>IF($R41&lt;=SMALL($R$36:$R$60,1),$H8,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T41" s="2" t="str">
-        <f>IF($R41&lt;=SMALL($R$36:$R$60,5),$H8,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U41" s="2" t="str">
-        <f>IF($R41&lt;=SMALL($R$36:$R$60,9),$H8,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V41" s="2" t="str">
-        <f>IF($R41&lt;=SMALL($R$36:$R$60,13),$H8,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W41" s="20">
-        <f>IF($R41&lt;=SMALL($R$36:$R$60,15),$H8,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
@@ -8375,951 +7955,951 @@
         <v>15</v>
       </c>
       <c r="J42" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>32.97059295796786</v>
       </c>
       <c r="K42" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L42" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M42" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N42" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O42" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R42" s="17">
-        <f>SQRT((C9-$C$32)^2+(D9-$D$32)^2+(E9-$E$32)^2+(F9-$F$32)^2+(G9-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>19.691368667515217</v>
       </c>
       <c r="S42" s="2" t="str">
-        <f>IF($R42&lt;=SMALL($R$36:$R$60,1),$H9,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T42" s="2" t="str">
-        <f>IF($R42&lt;=SMALL($R$36:$R$60,5),$H9,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U42" s="2" t="str">
-        <f>IF($R42&lt;=SMALL($R$36:$R$60,9),$H9,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V42" s="2" t="str">
-        <f>IF($R42&lt;=SMALL($R$36:$R$60,13),$H9,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W42" s="20" t="str">
-        <f>IF($R42&lt;=SMALL($R$36:$R$60,15),$H9,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="43" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J43" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>41.046193489774417</v>
       </c>
       <c r="K43" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L43" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M43" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N43" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O43" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R43" s="17">
-        <f>SQRT((C10-$C$32)^2+(D10-$D$32)^2+(E10-$E$32)^2+(F10-$F$32)^2+(G10-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>27.688264662127164</v>
       </c>
       <c r="S43" s="2" t="str">
-        <f>IF($R43&lt;=SMALL($R$36:$R$60,1),$H10,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T43" s="2" t="str">
-        <f>IF($R43&lt;=SMALL($R$36:$R$60,5),$H10,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U43" s="2" t="str">
-        <f>IF($R43&lt;=SMALL($R$36:$R$60,9),$H10,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V43" s="2" t="str">
-        <f>IF($R43&lt;=SMALL($R$36:$R$60,13),$H10,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W43" s="20" t="str">
-        <f>IF($R43&lt;=SMALL($R$36:$R$60,15),$H10,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="44" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J44" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>22.648178734723903</v>
       </c>
       <c r="K44" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L44" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M44" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N44" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O44" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R44" s="17">
-        <f>SQRT((C11-$C$32)^2+(D11-$D$32)^2+(E11-$E$32)^2+(F11-$F$32)^2+(G11-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>12.534352795417879</v>
       </c>
       <c r="S44" s="2" t="str">
-        <f>IF($R44&lt;=SMALL($R$36:$R$60,1),$H11,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T44" s="2" t="str">
-        <f>IF($R44&lt;=SMALL($R$36:$R$60,5),$H11,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U44" s="2" t="str">
-        <f>IF($R44&lt;=SMALL($R$36:$R$60,9),$H11,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V44" s="2">
-        <f>IF($R44&lt;=SMALL($R$36:$R$60,13),$H11,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W44" s="20">
-        <f>IF($R44&lt;=SMALL($R$36:$R$60,15),$H11,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J45" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>37.717502568436316</v>
       </c>
       <c r="K45" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L45" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M45" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N45" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O45" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R45" s="17">
-        <f>SQRT((C12-$C$32)^2+(D12-$D$32)^2+(E12-$E$32)^2+(F12-$F$32)^2+(G12-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>23.831491770344549</v>
       </c>
       <c r="S45" s="2" t="str">
-        <f>IF($R45&lt;=SMALL($R$36:$R$60,1),$H12,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T45" s="2" t="str">
-        <f>IF($R45&lt;=SMALL($R$36:$R$60,5),$H12,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U45" s="2" t="str">
-        <f>IF($R45&lt;=SMALL($R$36:$R$60,9),$H12,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V45" s="2" t="str">
-        <f>IF($R45&lt;=SMALL($R$36:$R$60,13),$H12,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W45" s="20" t="str">
-        <f>IF($R45&lt;=SMALL($R$36:$R$60,15),$H12,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="46" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J46" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>24.682990094394967</v>
       </c>
       <c r="K46" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L46" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M46" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N46" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O46" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R46" s="17">
-        <f>SQRT((C13-$C$32)^2+(D13-$D$32)^2+(E13-$E$32)^2+(F13-$F$32)^2+(G13-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>11.732859838931001</v>
       </c>
       <c r="S46" s="2" t="str">
-        <f>IF($R46&lt;=SMALL($R$36:$R$60,1),$H13,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T46" s="2" t="str">
-        <f>IF($R46&lt;=SMALL($R$36:$R$60,5),$H13,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U46" s="2" t="str">
-        <f>IF($R46&lt;=SMALL($R$36:$R$60,9),$H13,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V46" s="2">
-        <f>IF($R46&lt;=SMALL($R$36:$R$60,13),$H13,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W46" s="20">
-        <f>IF($R46&lt;=SMALL($R$36:$R$60,15),$H13,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J47" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17.590054007876155</v>
       </c>
       <c r="K47" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L47" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M47" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N47" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O47" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R47" s="17">
-        <f>SQRT((C14-$C$32)^2+(D14-$D$32)^2+(E14-$E$32)^2+(F14-$F$32)^2+(G14-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>10.319883720275147</v>
       </c>
       <c r="S47" s="2" t="str">
-        <f>IF($R47&lt;=SMALL($R$36:$R$60,1),$H14,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T47" s="2" t="str">
-        <f>IF($R47&lt;=SMALL($R$36:$R$60,5),$H14,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U47" s="2">
-        <f>IF($R47&lt;=SMALL($R$36:$R$60,9),$H14,"")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="V47" s="2">
-        <f>IF($R47&lt;=SMALL($R$36:$R$60,13),$H14,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W47" s="20">
-        <f>IF($R47&lt;=SMALL($R$36:$R$60,15),$H14,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J48" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17.821054963160851</v>
       </c>
       <c r="K48" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L48" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M48" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N48" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O48" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R48" s="17">
-        <f>SQRT((C15-$C$32)^2+(D15-$D$32)^2+(E15-$E$32)^2+(F15-$F$32)^2+(G15-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>12.642784503423286</v>
       </c>
       <c r="S48" s="2" t="str">
-        <f>IF($R48&lt;=SMALL($R$36:$R$60,1),$H15,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T48" s="2" t="str">
-        <f>IF($R48&lt;=SMALL($R$36:$R$60,5),$H15,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U48" s="2" t="str">
-        <f>IF($R48&lt;=SMALL($R$36:$R$60,9),$H15,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V48" s="2">
-        <f>IF($R48&lt;=SMALL($R$36:$R$60,13),$H15,"")</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W48" s="20">
-        <f>IF($R48&lt;=SMALL($R$36:$R$60,15),$H15,"")</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J49" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>18.613436007357695</v>
       </c>
       <c r="K49" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L49" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M49" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N49" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R49" s="17">
-        <f>SQRT((C16-$C$32)^2+(D16-$D$32)^2+(E16-$E$32)^2+(F16-$F$32)^2+(G16-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>12.283729075488438</v>
       </c>
       <c r="S49" s="2" t="str">
-        <f>IF($R49&lt;=SMALL($R$36:$R$60,1),$H16,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T49" s="2" t="str">
-        <f>IF($R49&lt;=SMALL($R$36:$R$60,5),$H16,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U49" s="2" t="str">
-        <f>IF($R49&lt;=SMALL($R$36:$R$60,9),$H16,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V49" s="2">
-        <f>IF($R49&lt;=SMALL($R$36:$R$60,13),$H16,"")</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W49" s="20">
-        <f>IF($R49&lt;=SMALL($R$36:$R$60,15),$H16,"")</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J50" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>27.541604891509134</v>
       </c>
       <c r="K50" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L50" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M50" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N50" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O50" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R50" s="17">
-        <f>SQRT((C17-$C$32)^2+(D17-$D$32)^2+(E17-$E$32)^2+(F17-$F$32)^2+(G17-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>16.624981202996889</v>
       </c>
       <c r="S50" s="2" t="str">
-        <f>IF($R50&lt;=SMALL($R$36:$R$60,1),$H17,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T50" s="2" t="str">
-        <f>IF($R50&lt;=SMALL($R$36:$R$60,5),$H17,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U50" s="2" t="str">
-        <f>IF($R50&lt;=SMALL($R$36:$R$60,9),$H17,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V50" s="2" t="str">
-        <f>IF($R50&lt;=SMALL($R$36:$R$60,13),$H17,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W50" s="20" t="str">
-        <f>IF($R50&lt;=SMALL($R$36:$R$60,15),$H17,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="51" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J51" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>31.260358283295474</v>
       </c>
       <c r="K51" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L51" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M51" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N51" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="O51" s="20" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="R51" s="17">
-        <f>SQRT((C18-$C$32)^2+(D18-$D$32)^2+(E18-$E$32)^2+(F18-$F$32)^2+(G18-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>20.00349969380358</v>
       </c>
       <c r="S51" s="2" t="str">
-        <f>IF($R51&lt;=SMALL($R$36:$R$60,1),$H18,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T51" s="2" t="str">
-        <f>IF($R51&lt;=SMALL($R$36:$R$60,5),$H18,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U51" s="2" t="str">
-        <f>IF($R51&lt;=SMALL($R$36:$R$60,9),$H18,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V51" s="2" t="str">
-        <f>IF($R51&lt;=SMALL($R$36:$R$60,13),$H18,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W51" s="20" t="str">
-        <f>IF($R51&lt;=SMALL($R$36:$R$60,15),$H18,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
     <row r="52" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J52" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>19.828262657126569</v>
       </c>
       <c r="K52" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L52" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M52" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N52" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O52" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R52" s="17">
-        <f>SQRT((C19-$C$32)^2+(D19-$D$32)^2+(E19-$E$32)^2+(F19-$F$32)^2+(G19-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>8.1394102980498531</v>
       </c>
       <c r="S52" s="2" t="str">
-        <f>IF($R52&lt;=SMALL($R$36:$R$60,1),$H19,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T52" s="2" t="str">
-        <f>IF($R52&lt;=SMALL($R$36:$R$60,5),$H19,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U52" s="2">
-        <f>IF($R52&lt;=SMALL($R$36:$R$60,9),$H19,"")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="V52" s="2">
-        <f>IF($R52&lt;=SMALL($R$36:$R$60,13),$H19,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W52" s="20">
-        <f>IF($R52&lt;=SMALL($R$36:$R$60,15),$H19,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J53" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14.140014144264496</v>
       </c>
       <c r="K53" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N53" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O53" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R53" s="17">
-        <f>SQRT((C20-$C$32)^2+(D20-$D$32)^2+(E20-$E$32)^2+(F20-$F$32)^2+(G20-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>11.050339361304703</v>
       </c>
       <c r="S53" s="2" t="str">
-        <f>IF($R53&lt;=SMALL($R$36:$R$60,1),$H20,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T53" s="2" t="str">
-        <f>IF($R53&lt;=SMALL($R$36:$R$60,5),$H20,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U53" s="2">
-        <f>IF($R53&lt;=SMALL($R$36:$R$60,9),$H20,"")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V53" s="2">
-        <f>IF($R53&lt;=SMALL($R$36:$R$60,13),$H20,"")</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W53" s="20">
-        <f>IF($R53&lt;=SMALL($R$36:$R$60,15),$H20,"")</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J54" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>16.118622769951532</v>
       </c>
       <c r="K54" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L54" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N54" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O54" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R54" s="17">
-        <f>SQRT((C21-$C$32)^2+(D21-$D$32)^2+(E21-$E$32)^2+(F21-$F$32)^2+(G21-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>5.7879184513951127</v>
       </c>
       <c r="S54" s="2" t="str">
-        <f>IF($R54&lt;=SMALL($R$36:$R$60,1),$H21,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T54" s="2">
-        <f>IF($R54&lt;=SMALL($R$36:$R$60,5),$H21,"")</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="U54" s="2">
-        <f>IF($R54&lt;=SMALL($R$36:$R$60,9),$H21,"")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="V54" s="2">
-        <f>IF($R54&lt;=SMALL($R$36:$R$60,13),$H21,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W54" s="20">
-        <f>IF($R54&lt;=SMALL($R$36:$R$60,15),$H21,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J55" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14.150971698084906</v>
       </c>
       <c r="K55" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="M55" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N55" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O55" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R55" s="17">
-        <f>SQRT((C22-$C$32)^2+(D22-$D$32)^2+(E22-$E$32)^2+(F22-$F$32)^2+(G22-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>5.0457903246171449</v>
       </c>
       <c r="S55" s="2" t="str">
-        <f>IF($R55&lt;=SMALL($R$36:$R$60,1),$H22,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T55" s="2">
-        <f>IF($R55&lt;=SMALL($R$36:$R$60,5),$H22,"")</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="U55" s="2">
-        <f>IF($R55&lt;=SMALL($R$36:$R$60,9),$H22,"")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="V55" s="2">
-        <f>IF($R55&lt;=SMALL($R$36:$R$60,13),$H22,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W55" s="20">
-        <f>IF($R55&lt;=SMALL($R$36:$R$60,15),$H22,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J56" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>17.610792145727004</v>
       </c>
       <c r="K56" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L56" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M56" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>3</v>
       </c>
       <c r="N56" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
       <c r="O56" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>3</v>
       </c>
       <c r="R56" s="17">
-        <f>SQRT((C23-$C$32)^2+(D23-$D$32)^2+(E23-$E$32)^2+(F23-$F$32)^2+(G23-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>4.1581245772583584</v>
       </c>
       <c r="S56" s="2" t="str">
-        <f>IF($R56&lt;=SMALL($R$36:$R$60,1),$H23,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T56" s="2">
-        <f>IF($R56&lt;=SMALL($R$36:$R$60,5),$H23,"")</f>
+        <f t="shared" si="22"/>
         <v>3</v>
       </c>
       <c r="U56" s="2">
-        <f>IF($R56&lt;=SMALL($R$36:$R$60,9),$H23,"")</f>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="V56" s="2">
-        <f>IF($R56&lt;=SMALL($R$36:$R$60,13),$H23,"")</f>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="W56" s="20">
-        <f>IF($R56&lt;=SMALL($R$36:$R$60,15),$H23,"")</f>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
     </row>
     <row r="57" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J57" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>18.93171941478111</v>
       </c>
       <c r="K57" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L57" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="M57" s="2" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="N57" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O57" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R57" s="17">
-        <f>SQRT((C24-$C$32)^2+(D24-$D$32)^2+(E24-$E$32)^2+(F24-$F$32)^2+(G24-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>4.8476798574163293</v>
       </c>
       <c r="S57" s="2" t="str">
-        <f>IF($R57&lt;=SMALL($R$36:$R$60,1),$H24,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T57" s="2">
-        <f>IF($R57&lt;=SMALL($R$36:$R$60,5),$H24,"")</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="U57" s="2">
-        <f>IF($R57&lt;=SMALL($R$36:$R$60,9),$H24,"")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="V57" s="2">
-        <f>IF($R57&lt;=SMALL($R$36:$R$60,13),$H24,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W57" s="20">
-        <f>IF($R57&lt;=SMALL($R$36:$R$60,15),$H24,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="58" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J58" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>14.920120642943877</v>
       </c>
       <c r="K58" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="M58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>2</v>
       </c>
       <c r="N58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
       <c r="O58" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>2</v>
       </c>
       <c r="R58" s="17">
-        <f>SQRT((C25-$C$32)^2+(D25-$D$32)^2+(E25-$E$32)^2+(F25-$F$32)^2+(G25-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S58" s="2">
-        <f>IF($R58&lt;=SMALL($R$36:$R$60,1),$H25,"")</f>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="T58" s="2">
-        <f>IF($R58&lt;=SMALL($R$36:$R$60,5),$H25,"")</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="U58" s="2">
-        <f>IF($R58&lt;=SMALL($R$36:$R$60,9),$H25,"")</f>
+        <f t="shared" si="23"/>
         <v>2</v>
       </c>
       <c r="V58" s="2">
-        <f>IF($R58&lt;=SMALL($R$36:$R$60,13),$H25,"")</f>
+        <f t="shared" si="24"/>
         <v>2</v>
       </c>
       <c r="W58" s="20">
-        <f>IF($R58&lt;=SMALL($R$36:$R$60,15),$H25,"")</f>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J59" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>8.3630138108220287</v>
       </c>
       <c r="K59" s="2" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O59" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R59" s="17">
-        <f>SQRT((C26-$C$32)^2+(D26-$D$32)^2+(E26-$E$32)^2+(F26-$F$32)^2+(G26-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>9.0548329636719416</v>
       </c>
       <c r="S59" s="2" t="str">
-        <f>IF($R59&lt;=SMALL($R$36:$R$60,1),$H26,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T59" s="2" t="str">
-        <f>IF($R59&lt;=SMALL($R$36:$R$60,5),$H26,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U59" s="2">
-        <f>IF($R59&lt;=SMALL($R$36:$R$60,9),$H26,"")</f>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="V59" s="2">
-        <f>IF($R59&lt;=SMALL($R$36:$R$60,13),$H26,"")</f>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="W59" s="20">
-        <f>IF($R59&lt;=SMALL($R$36:$R$60,15),$H26,"")</f>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="10:24" x14ac:dyDescent="0.25">
       <c r="J60" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="M60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="N60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="O60" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="19"/>
         <v>1</v>
       </c>
       <c r="R60" s="17">
-        <f>SQRT((C27-$C$32)^2+(D27-$D$32)^2+(E27-$E$32)^2+(F27-$F$32)^2+(G27-$G$32)^2)</f>
+        <f t="shared" si="20"/>
         <v>14.920120642943877</v>
       </c>
       <c r="S60" s="2" t="str">
-        <f>IF($R60&lt;=SMALL($R$36:$R$60,1),$H27,"")</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="T60" s="2" t="str">
-        <f>IF($R60&lt;=SMALL($R$36:$R$60,5),$H27,"")</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="U60" s="2" t="str">
-        <f>IF($R60&lt;=SMALL($R$36:$R$60,9),$H27,"")</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="V60" s="2" t="str">
-        <f>IF($R60&lt;=SMALL($R$36:$R$60,13),$H27,"")</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="W60" s="20" t="str">
-        <f>IF($R60&lt;=SMALL($R$36:$R$60,15),$H27,"")</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
     </row>
@@ -9405,7 +8985,7 @@
         <v>9</v>
       </c>
       <c r="P63" s="18">
-        <f t="shared" ref="P63:P64" si="14">SUM(K63:O63)</f>
+        <f t="shared" ref="P63:P64" si="26">SUM(K63:O63)</f>
         <v>22</v>
       </c>
       <c r="R63" s="39">
@@ -9432,7 +9012,7 @@
         <v>10</v>
       </c>
       <c r="X63" s="18">
-        <f t="shared" ref="X63:X64" si="15">SUM(S63:W63)</f>
+        <f t="shared" ref="X63:X64" si="27">SUM(S63:W63)</f>
         <v>29</v>
       </c>
     </row>
@@ -9461,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="P64" s="18">
-        <f t="shared" si="14"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="R64" s="41">
@@ -9488,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="X64" s="18">
-        <f t="shared" si="15"/>
+        <f t="shared" si="27"/>
         <v>4</v>
       </c>
     </row>
